--- a/backend/agents/faq_filter_agent/data/faq.xlsx
+++ b/backend/agents/faq_filter_agent/data/faq.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="通用" sheetId="2" r:id="rId2"/>
+    <sheet name="祖龙" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="238">
   <si>
     <t>问题</t>
   </si>
@@ -43,9 +45,6 @@
     <t>答案</t>
   </si>
   <si>
-    <t>寒暄</t>
-  </si>
-  <si>
     <t>用户当前只是打招呼，没说具体问题</t>
   </si>
   <si>
@@ -73,9 +72,6 @@
     <t>想找回账号的密码</t>
   </si>
   <si>
-    <t>专员，您好，经核实，所需找回账号为渠道账号，由于我们无法查询核对渠道账号信息，因此请您联系渠道客服，说明问题详情，由渠道客服为您查询或处理。感谢您对游戏的关注与喜爱。</t>
-  </si>
-  <si>
     <t>找回官方账号密码</t>
   </si>
   <si>
@@ -85,13 +81,6 @@
     <t>实名认证遇到问题</t>
   </si>
   <si>
-    <t>专员，您好。为了更好的帮到您，请提供以下信息：
-1、所需进行实名认证身份证的正面清晰无遮挡照片；
-2、无法绑定实名认证信息的全过程录屏，将视频发送到邮箱zlkf@zulong.com，并请通过回复告知您发送邮件所使用的邮箱，以利排查问题。
-3、使用的登录方式（例如：手机号码或TapTap名称）
-感谢您对游戏的喜爱与关注。</t>
-  </si>
-  <si>
     <t>在官网换绑页面换绑手机号失败，被提示联系客服的</t>
   </si>
   <si>
@@ -108,17 +97,6 @@
   </si>
   <si>
     <t>因手机号或邮箱无法使用，需要换成新的</t>
-  </si>
-  <si>
-    <t>专员，您好，请您尝试使用当前角色所绑定的手机号/邮箱选择接收验证码的方式换绑。
-如仍无法换绑，为了账号安全考虑，请您提供以下信息：
-1、无法登录该账号的原因；
-2、是否曾经更换过登录设备？
-3、所需找回的角色名称、角色UID、角色所在服务器及上次登出的大概时间；
-4、要找回账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐换绑手机号/邮箱使用”的字样，来保障照片不被用于其他场合；
-5、能够证明您为账号所有者的具体信息（包含但不限于角色等级、角色创建时间、角色主线进度、钻石数量等）；
-6、如所需换绑账号有进行过充值，请提供该账号历史全部的充值订单详情页记录，苹果订单要求订单收据，需显示订单号、购买商品名称、订单时间，订单金额，内容清晰完整无遮挡，尽最大可能提供完整；
-以便人员进行核实。感谢您对游戏的喜爱与关注。</t>
   </si>
   <si>
     <t>在鸿蒙纯血包登录华为包创建的角色（即转移）</t>
@@ -329,19 +307,10 @@
     <t>android</t>
   </si>
   <si>
-    <t>专员，您好。由于这边无权限查看渠道充值信息，您的充值问题请尝试联系相关渠道客服进行处理，请在联系相关渠道客服时，提供您的角色信息及充值问题订单截图，相关工作人员会为您解答处理，感谢您的关注与支持。</t>
-  </si>
-  <si>
     <t>安卓官方充值未到账</t>
   </si>
   <si>
-    <t>专员，您好。为了更好的定位问题，请您提供包含充值时间、充值金额、充值商户/商家订单号的扣款页面截图，截图需清晰完整且无遮挡、无涂抹喔，感谢您对游戏的支持与关注。</t>
-  </si>
-  <si>
     <t>iOS充值未到账</t>
-  </si>
-  <si>
-    <t>专员，您好。如您使用的是App Store充值，可能会有延迟到账的情况喔，请您耐心等待24小时，如24小时后依旧没有到账，请再次联系我们，并提供Apple id绑定邮箱内收到的苹果收据截图，截图需清晰完整且无遮挡、无涂抹，感谢您对游戏的支持与关注。</t>
   </si>
   <si>
     <t>安卓无法充值</t>
@@ -411,15 +380,9 @@
     <t>充值错账号，应该充在另一个账号里的，求退钱，我需要钱好吗？</t>
   </si>
   <si>
-    <t>充值错账号</t>
-  </si>
-  <si>
     <t>充值错账号了，想退款</t>
   </si>
   <si>
-    <t>专员，您好。游戏中充值、购买项目均无订阅，无法自动扣费，没有免密支付。支付时，支付渠道也会提示验证密码、指纹或人脸识别验证，通过上述多次验证、确认后方生效。如您不希望充值或购买，均可在确认操作前选择取消。故无法支持此要求，请您知晓。感谢您对游戏的喜爱与支持。</t>
-  </si>
-  <si>
     <t>游戏不想玩了，给我退款吧。</t>
   </si>
   <si>
@@ -444,25 +407,15 @@
     <t>孩子偷偷充钱，申请未成年人退款</t>
   </si>
   <si>
-    <t>未成年人</t>
-  </si>
-  <si>
     <t>未成年人充值，想退款</t>
   </si>
   <si>
-    <t>专员，您好。在游戏登录页面左上角【16+】图标处已提示【本游戏适用于年满16周岁及以上的用户，建议未成年人在家长监护下使用本游戏产品。】且在游戏登录页面下方也已明确提示【本公司积极履行《网络游戏行业防沉迷自律公约》】内容，请留意查看。
-如仍有此诉求，为保护账号财产安全，请问您是否同意提供账号的【实名认证本人手持实名认证身份证正反两面的照片】，如同意提供，请通过回复提供账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐核实信息使用”的字样，来保障照片不被用于其他场合。感谢您对游戏的支持与关注。</t>
-  </si>
-  <si>
     <t>退款通用</t>
   </si>
   <si>
     <t>通用退款</t>
   </si>
   <si>
-    <t>专员，请问您具体是因为什么问题要退款呢？</t>
-  </si>
-  <si>
     <t>开发票</t>
   </si>
   <si>
@@ -490,27 +443,13 @@
     <t>开具抬头为【公司/企业】发票</t>
   </si>
   <si>
-    <t>公司发票</t>
-  </si>
-  <si>
     <t>开公司或企业发票</t>
   </si>
   <si>
-    <t>专员，您好。
-请您确认您的充值行为是为您所要求开具发票的公司所发生的，在您回复确认后，我们将尝试为您推动相关流程。
-感谢您对游戏的喜爱与支持。</t>
-  </si>
-  <si>
     <t>开具纸质发票</t>
   </si>
   <si>
-    <t>纸质发票</t>
-  </si>
-  <si>
     <t>要纸质发票或者不要电子发票</t>
-  </si>
-  <si>
-    <t>专员，您好。电子发票是税务机关推行的有效收付款凭证，其法律效力、基本用途及使用规定同纸质发票，如需纸质发票可自行下载打印，感谢您的理解与支持。</t>
   </si>
   <si>
     <t>增值税发票</t>
@@ -531,7 +470,632 @@
     <t>通用发票</t>
   </si>
   <si>
-    <t>专员，您好，请问您具体有哪方面的发票需求？</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专员，您好。若您的华为账号在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HarmonyOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本客户端下已有角色，请选择【华为账号】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【转移】进行登录，即可转移数据到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HarmonyOS NEXT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本。感谢您对游戏的喜爱与关注。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专员，您好。请尝试在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HarmonyOS NEXT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统的【游戏中心】中按照如下步骤即可回退成功：【游戏中心】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【我的】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【转移服务】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【查看记录】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【回退】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【下一步】，感谢您对游戏的喜爱与关注。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解绑华为账号在鸿蒙纯血包【创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联】的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新zulong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号（即解绑）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在鸿蒙N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统上创建角色回退至鸿蒙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统（即鸿蒙系统间转移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回退）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>希望在鸿蒙N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统上创建的角色回退至鸿蒙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专员，您好。如您当前仍可登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HarmonyOS
+NEXT系统，请尝试进入游戏内的用户中心自行绑定一个新的手机号，绑定完成后，前往【龙族：卡塞尔之门】官网下载官方包，官方包体下载完成后，请尝试使用新绑定的手机号登录游戏查看此问题是否可以解决。如您当前无法登录HarmonyOS NEXT系统，为了更好的帮到您，请尝试联系华为渠道客服为您核实处理。感谢您对游戏的关注与喜爱。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已注销账号绑定的手机号是否可以注册新的账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">绑定其他账号 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专员，您好。已注销账号所绑定的同一手机号无法再注册/绑定其他账号，如您仍需要使用该手机号注册/绑定新的账号，请尝试通过以下方式将该手机号换绑出来后再次尝试绑定：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1.前往【祖龙娱乐】官网：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF267EF0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://passport.zulong.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.登录已注销的祖龙账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.在会员中心页面选择更换手机/邮箱，完成手机号/邮箱换绑。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+感谢您对游戏的喜爱与关注。</t>
+    </r>
+  </si>
+  <si>
+    <t>专员，您好。
+1、	由于登录《龙族：卡塞尔之门》游戏账号均需通过实名认证方可登录游戏进行充值操作，且由于申请的发票为增值税普通发票（电子发票）开具电子发票抬头默认为实名认证的姓名，无需填写纳税人识别号，为保障账号安全，避免因共享、出售账号等违反《公平运营公告》及《祖龙娱乐用户协议》相关条款的行为给实名认证者带来不必要的损失，因此还请您提供相关实名信息(实名认证人姓名及身份证号码)以供核实。
+如您确认发票抬头【不具姓名】，则抬头一律为【个人】。
+2、	请您提供XXXX年XX月XX日至XX月XX日（如跨年需在后面日期前加上年份）所需开具的【发票金额】，同时提供包含充值时间、充值金额、充值商户订单号的扣款页面截图，截图需清晰完整且无遮挡、无涂抹。您所提供的开票金额、信息和截图文件会经过核对并备案，核对通过后会根据所提供开票金额开具电子发票。
+3、	请您留下用于接收发票的电子邮箱地址（如您有163、126、qq等后缀的邮箱，推荐预留此类邮箱地址），您需确保所提供的邮箱地址的有效性与准确性，自行承担因提供电子邮箱地址错误产生的责任。
+以下情况请您注意：
+1、	电子发票是税务机关推行的有效收付款凭证，其法律效力、基本用途及使用规定同纸质发票，如需纸质发票可自行下载打印；
+2、	开票内容中“货物或应税劳务、服务名称”为：*信息技术服务*信息技术服务费；
+3、	发票日期仅支持开具申请日期以后的发票；
+4、	同一个订单号无法重复开具发票。
+感谢您对游戏的支持与关注。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专员，您好，请您尝试使用当前角色所绑定的手机号/邮箱选择接收验证码的方式登录。
+如仍无法登录， 为了账号安全考虑，请您提供以下信息：
+1、无法登录该账号的原因；
+2、是否曾经更换过设备或将账号密码/验证码告知过他人知晓；
+3、所需找回的角色名称、角色UID、角色所在服务器及上次登出的大概时间；
+4、所需找回账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐找回账号使用”的字样，来保障照片不被用于其他场合；
+5、能够证明您为账号所有者的具体信息（包含但不限于角色等级、角色创建时间、角色主线进度、钻石数量等）；
+6、如所需找回账号有进行过充值，请提供该账号历史全部的充值订单详情页记录，苹果订单要求订单收据，需显示订单号、购买商品名称、订单时间，订单金额，内容清晰完整无遮挡，尽最大可能提供完整；
+以便人员进行核实。感谢您对游戏的喜爱与关注。
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对答案进行答复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>想咨询问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>除“祖龙渠道”以外的其他渠道</t>
+  </si>
+  <si>
+    <t>“祖龙渠道”</t>
+  </si>
+  <si>
+    <t>“祖龙渠道”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>除“祖龙渠道”以外的其他渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>列7</t>
+  </si>
+  <si>
+    <t>列8</t>
+  </si>
+  <si>
+    <t>列9</t>
+  </si>
+  <si>
+    <t>列10</t>
+  </si>
+  <si>
+    <t>一级分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>五级分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒暄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，经核实，所需找回账号为渠道账号，由于我们无法查询核对渠道账号信息，因此请您联系渠道客服，说明问题详情，由渠道客服为您查询或处理。感谢您对游戏的关注与喜爱。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，经核实，所需找回账号为渠道账号，由于我们无法查询核对渠道账号信息，因此请您联系渠道客服，说明问题详情，由渠道客服为您查询或处理。感谢您对游戏的关注与喜爱。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，请您尝试使用当前角色所绑定的手机号/邮箱选择接收验证码的方式登录。
+如仍无法登录， 为了账号安全考虑，请您提供以下信息：
+1、无法登录该账号的原因；
+2、是否曾经更换过设备或将账号密码/验证码告知过他人知晓；
+3、所需找回的角色名称、角色UID、角色所在服务器及上次登出的大概时间；
+4、所需找回账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐找回账号使用”的字样，来保障照片不被用于其他场合；
+5、能够证明您为账号所有者的具体信息（包含但不限于角色等级、角色创建时间、角色主线进度、钻石数量等）；
+6、如所需找回账号有进行过充值，请提供该账号历史全部的充值订单详情页记录，苹果订单要求订单收据，需显示订单号、购买商品名称、订单时间，订单金额，内容清晰完整无遮挡，尽最大可能提供完整；
+以便人员进行核实。感谢您对游戏的喜爱与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回账号密码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回账号密码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。为了更好的帮到您，请提供以下信息：
+1、所需进行实名认证身份证的正面清晰无遮挡照片；
+2、无法绑定实名认证信息的全过程录屏，将视频发送到邮箱zlkf@zulong.com，并请通过回复告知您发送邮件所使用的邮箱，以利排查问题。
+3、使用的登录方式（例如：手机号码或TapTap名称）
+感谢您对游戏的喜爱与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。为了更好的帮到您，请提供以下信息：
+1、所需进行实名认证身份证的正面清晰无遮挡照片；
+2、无法绑定实名认证信息的全过程录屏，将视频发送到邮箱zlkf@zulong.com，并请通过回复告知您发送邮件所使用的邮箱，以利排查问题。
+3、使用的登录方式（例如：手机号码或TapTap名称）
+感谢您对游戏的喜爱与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机邮箱绑定</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>换绑失败提示联系客服</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>专员，您好。由于此情况需经过人工验证后进行人工换绑手机号的操作，此操作为重要操作，必须核对实名认证身份，请您按照以下格式及内容准备邮件：
@@ -547,470 +1111,55 @@
 3、将具备以上标题、内容、照片、图片均按照要求完整无误地编写完成后，以邮件的形式，发送到祖龙客服邮箱：zlkf@zulong.com；
 4、工作人员将依照发送先后顺序，陆续进行审核，审核通过后会进行对应的操作。
 以上情况，请您了解，感谢您对游戏的喜爱与支持。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专员，您好。若您的华为账号在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>HarmonyOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本客户端下已有角色，请选择【华为账号】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【转移】进行登录，即可转移数据到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>HarmonyOS NEXT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本。感谢您对游戏的喜爱与关注。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专员，您好。请尝试在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HarmonyOS NEXT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统的【游戏中心】中按照如下步骤即可回退成功：【游戏中心】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【我的】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【转移服务】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【查看记录】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【回退】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【下一步】，感谢您对游戏的喜爱与关注。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>解绑华为账号在鸿蒙纯血包【创建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关联】的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新zulong</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账号（即解绑）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在鸿蒙N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统上创建角色回退至鸿蒙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统（即鸿蒙系统间转移</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回退）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>希望在鸿蒙N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统上创建的角色回退至鸿蒙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专员，您好。如您当前仍可登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HarmonyOS
-NEXT系统，请尝试进入游戏内的用户中心自行绑定一个新的手机号，绑定完成后，前往【龙族：卡塞尔之门】官网下载官方包，官方包体下载完成后，请尝试使用新绑定的手机号登录游戏查看此问题是否可以解决。如您当前无法登录HarmonyOS NEXT系统，为了更好的帮到您，请尝试联系华为渠道客服为您核实处理。感谢您对游戏的关注与喜爱。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已注销账号绑定的手机号是否可以注册新的账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">绑定其他账号 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专员，您好。已注销账号所绑定的同一手机号无法再注册/绑定其他账号，如您仍需要使用该手机号注册/绑定新的账号，请尝试通过以下方式将该手机号换绑出来后再次尝试绑定：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1.前往【祖龙娱乐】官网：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF267EF0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://passport.zulong.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.登录已注销的祖龙账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-3.在会员中心页面选择更换手机/邮箱，完成手机号/邮箱换绑。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-感谢您对游戏的喜爱与关注。</t>
-    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。由于此情况需经过人工验证后进行人工换绑手机号的操作，此操作为重要操作，必须核对实名认证身份，请您按照以下格式及内容准备邮件：
+1、邮件标题：【账号IDXXXX官网换绑提示失败，人工换绑手机号申请】
+2、邮件内容：
+1）账号ID（请尝试通过游戏主界面，左下角头像，右侧用户中心查看）：
+     服务器名称：
+     换绑前的手机号：
+     换绑后的手机号：
+2）实名认证人本人手持实名认证身份证正反面照片各一张，要求人物面部、身份证正反面内容完整无遮挡、清晰可辨认，并请在两张照片上均用水印写上：仅供祖龙娱乐人工换绑手机号验证实名身份使用；
+3）如所需换绑账号有进行过充值，请提供该账号历史全部的充值订单详情页记录，苹果订单要求订单收据，需显示订单号、购买商品名称、订单时间，订单金额，内容清晰完整无遮挡，尽最大可能提供完整；
+4）官网提示换绑失败要求联系客服的完整清晰截图；
+3、将具备以上标题、内容、照片、图片均按照要求完整无误地编写完成后，以邮件的形式，发送到祖龙客服邮箱：zlkf@zulong.com；
+4、工作人员将依照发送先后顺序，陆续进行审核，审核通过后会进行对应的操作。
+以上情况，请您了解，感谢您对游戏的喜爱与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧的不再使用要换绑新的</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，请您尝试使用当前角色所绑定的手机号/邮箱选择接收验证码的方式换绑。
+如仍无法换绑，为了账号安全考虑，请您提供以下信息：
+1、无法登录该账号的原因；
+2、是否曾经更换过登录设备？
+3、所需找回的角色名称、角色UID、角色所在服务器及上次登出的大概时间；
+4、要找回账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐换绑手机号/邮箱使用”的字样，来保障照片不被用于其他场合；
+5、能够证明您为账号所有者的具体信息（包含但不限于角色等级、角色创建时间、角色主线进度、钻石数量等）；
+6、如所需换绑账号有进行过充值，请提供该账号历史全部的充值订单详情页记录，苹果订单要求订单收据，需显示订单号、购买商品名称、订单时间，订单金额，内容清晰完整无遮挡，尽最大可能提供完整；
+以便人员进行核实。感谢您对游戏的喜爱与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，请您尝试使用当前角色所绑定的手机号/邮箱选择接收验证码的方式换绑。
+如仍无法换绑，为了账号安全考虑，请您提供以下信息：
+1、无法登录该账号的原因；
+2、是否曾经更换过登录设备？
+3、所需找回的角色名称、角色UID、角色所在服务器及上次登出的大概时间；
+4、要找回账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐换绑手机号/邮箱使用”的字样，来保障照片不被用于其他场合；
+5、能够证明您为账号所有者的具体信息（包含但不限于角色等级、角色创建时间、角色主线进度、钻石数量等）；
+6、如所需换绑账号有进行过充值，请提供该账号历史全部的充值订单详情页记录，苹果订单要求订单收据，需显示订单号、购买商品名称、订单时间，订单金额，内容清晰完整无遮挡，尽最大可能提供完整；
+以便人员进行核实。感谢您对游戏的喜爱与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩溃闪退</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>专员，您好，为了更有效地定位问题，请您提供以下信息： 
@@ -1021,6 +1170,26 @@
 4、	请在闪退发生后，不要进入游戏，立即进入手机的文件管理apk，依次选择: 我的手机/Android/data/com.zulong.drc.gw/files/UE4Game/Azure/Azure/Saved/Logs/Azure.log，将其中的Azure.log文件发送给诺玛小助手微信； 
 5、	为了便于可能后续产生的沟通，请通过回复告知您常用的邮箱，以利排查问题。感谢您的支持与理解。
 【特别提醒】：Azure.log文件需要在闪退问题出现后，立刻到上述地址查找，传给我们之前请不要再次进入游戏，否则该文件将会被刷新覆盖，就无法找到问题的相关记录了。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，为了更有效地定位问题，请您提供以下信息： 
+1、 请将出现闪退的全过程录屏，并将视频发送给【诺玛小助手微信】（该号仅供提供问题文件、录屏使用，游戏问题请您咨询游戏内客服）
+可尝试通过扫描下方二维码添加诺玛小助手微信，提供视频时，请将您的【角色UID】及【服务器】一并告知诺玛小助手，以便定位问题；
+2、 您所使用的【设备型号】； 
+3、 您所使用的【设备系统版本号】（Android手机通常可以通过手机中的设置→关于手机或关于本机→软件信息→Android版本来进行查看，例如: Android 11）；
+4、 请在闪退发生后，不要进入游戏，立即进入手机的文件管理apk，依次选择: 我的手机/Android/data/com.zulong.drc.gw/files/UE4Game/Azure/Azure/Saved/Logs/Azure.log，将其中的Azure.log文件发送给诺玛小助手微信； 
+5、 为了便于可能后续产生的沟通，请通过回复告知您常用的邮箱，以利排查问题。感谢您的支持与理解。
+【特别提醒】：Azure.log文件需要在闪退问题出现后，立刻到上述地址查找，传给我们之前请不要再次进入游戏，否则该文件将会被刷新覆盖，就无法找到问题的相关记录了。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>专员，您好，请尝试【重启设备】，查看是否还会发生闪退的现象？
@@ -1033,6 +1202,130 @@
 5、	为了便于可能后续产生的沟通，请通过回复告知您常用的邮箱。
 温馨提示：若未能查看到报错提示框，请您尝试按照以下步骤操作：找到手机中的设置→隐私→分析与改进→将【与APP开发者共享】开关打开。完成此步骤后再次尝试重启游戏，以便查看出现闪退后是否会有错误报告弹出，如果有弹出还请您将错误报告点击发送。
 以利排查问题。感谢您的支持与理解。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，请尝试【重启设备】，查看是否还会发生闪退的现象？
+如【重启设备】后无改善，请提供以下信息：
+1、 请将出现闪退的全过程录屏，并将视频发送给【诺玛小助手微信】（该号仅供提供问题文件、录屏使用，游戏问题请您咨询游戏内客服）
+可尝试通过扫描下方二维码添加诺玛小助手微信，提供视频时，请将您的【角色UID】及【服务器】一并告知诺玛小助手，以便定位问题； 
+2、 请在闪退后弹出的报错提示框中点击发送，将错误代码发送给我们的技术人员查验；
+3、 所使用的【设备型号】 
+4、 所使用的【设备系统版本号】（例如:iOS15.3.1）；
+5、 为了便于可能后续产生的沟通，请通过回复告知您常用的邮箱。
+温馨提示：若未能查看到报错提示框，请您尝试按照以下步骤操作：找到手机中的设置→隐私→分析与改进→将【与APP开发者共享】开关打开。完成此步骤后再次尝试重启游戏，以便查看出现闪退后是否会有错误报告弹出，如果有弹出还请您将错误报告点击发送。
+以利排查问题。感谢您的支持与理解。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值未到账</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。由于这边无权限查看渠道充值信息，您的充值问题请尝试联系相关渠道客服进行处理，请在联系相关渠道客服时，提供您的角色信息及充值问题订单截图，相关工作人员会为您解答处理，感谢您的关注与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。由于这边无权限查看渠道充值信息，您的充值问题请尝试联系相关渠道客服进行处理，请在联系相关渠道客服时，提供您的角色信息及充值问题订单截图，相关工作人员会为您解答处理，感谢您的关注与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。如您使用的是App Store充值，可能会有延迟到账的情况喔，请您耐心等待24小时，如24小时后依旧没有到账，请再次联系我们，并提供Apple id绑定邮箱内收到的苹果收据截图，截图需清晰完整且无遮挡、无涂抹，感谢您对游戏的支持与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。如您使用的是App Store充值，可能会有延迟到账的情况喔，请您耐心等待24小时，如24小时后依旧没有到账，请再次联系我们，并提供Apple id绑定邮箱内收到的苹果收据截图，截图需清晰完整且无遮挡、无涂抹，感谢您对游戏的支持与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。为了更好的定位问题，请您提供包含充值时间、充值金额、充值商户/商家订单号的扣款页面截图，截图需清晰完整且无遮挡、无涂抹喔，感谢您对游戏的支持与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。为了更好的定位问题，请您提供包含充值时间、充值金额、充值商户/商家订单号的扣款页面截图，截图需清晰完整且无遮挡、无涂抹喔，感谢您对游戏的支持与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想玩了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，游戏中充值、购买项目均无订阅，无法自动扣费，没有免密支付。支付时，支付渠道也会提示验证密码、指纹或人脸识别验证，通过上述多次验证、确认后方生效。如您不希望充值或购买，均可在确认操作前选择取消。故无法支持此要求，请您知晓。感谢您对游戏的喜爱与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，游戏中充值、购买项目均无订阅，无法自动扣费，没有免密支付。支付时，支付渠道也会提示验证密码、指纹或人脸识别验证，通过上述多次验证、确认后方生效。如您不希望充值或购买，均可在确认操作前选择取消。故无法支持此要求，请您知晓。感谢您对游戏的喜爱与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成年人冲的本人不知情</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。在游戏登录页面左上角【16+】图标处已提示【本游戏适用于年满16周岁及以上的用户，建议未成年人在家长监护下使用本游戏产品。】且在游戏登录页面下方也已明确提示【本公司积极履行《网络游戏行业防沉迷自律公约》】内容，请留意查看。
+如仍有此诉求，为保护账号财产安全，请问您是否同意提供账号的【实名认证本人手持实名认证身份证正反两面的照片】，如同意提供，请通过回复提供账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐核实信息使用”的字样，来保障照片不被用于其他场合。感谢您对游戏的支持与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。在游戏登录页面左上角【16+】图标处已提示【本游戏适用于年满16周岁及以上的用户，建议未成年人在家长监护下使用本游戏产品。】且在游戏登录页面下方也已明确提示【本公司积极履行《网络游戏行业防沉迷自律公约》】内容，请留意查看。
+如仍有此诉求，为保护账号财产安全，请问您是否同意提供账号的【实名认证本人手持实名认证身份证正反两面的照片】，如同意提供，请通过回复提供账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐核实信息使用”的字样，来保障照片不被用于其他场合。感谢您对游戏的支持与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值错账号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值错了账号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。游戏中充值、购买项目均无订阅，无法自动扣费，没有免密支付。支付时，支付渠道也会提示验证密码、指纹或人脸识别验证，通过上述多次验证、确认后方生效。如您不希望充值或购买，均可在确认操作前选择取消。故无法支持此要求，请您知晓。感谢您对游戏的喜爱与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。游戏中充值、购买项目均无订阅，无法自动扣费，没有免密支付。支付时，支付渠道也会提示验证密码、指纹或人脸识别验证，通过上述多次验证、确认后方生效。如您不希望充值或购买，均可在确认操作前选择取消。故无法支持此要求，请您知晓。感谢您对游戏的喜爱与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。由于这边无权限查看渠道充值信息，您的充值问题请尝试联系相关渠道客服进行处理，请在联系相关渠道客服时，提供您的角色信息及充值问题订单截图，相关工作人员会为您解答处理，感谢您的关注与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开具个人发票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>专员，您好。
@@ -1046,40 +1339,80 @@
 3、	发票日期仅支持开具申请日期以后的发票；
 4、	同一个订单号无法重复开具发票。
 感谢您对游戏的支持与关注。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">专员，您好，请您尝试使用当前角色所绑定的手机号/邮箱选择接收验证码的方式登录。
-如仍无法登录， 为了账号安全考虑，请您提供以下信息：
-1、无法登录该账号的原因；
-2、是否曾经更换过设备或将账号密码/验证码告知过他人知晓；
-3、所需找回的角色名称、角色UID、角色所在服务器及上次登出的大概时间；
-4、所需找回账号的【实名认证本人手持实名认证身份证正反两面的照片】，照片要求清晰无遮挡，可以看清面部和身份证上的信息，同时，请您在照片上附上水印“此照片仅供祖龙娱乐找回账号使用”的字样，来保障照片不被用于其他场合；
-5、能够证明您为账号所有者的具体信息（包含但不限于角色等级、角色创建时间、角色主线进度、钻石数量等）；
-6、如所需找回账号有进行过充值，请提供该账号历史全部的充值订单详情页记录，苹果订单要求订单收据，需显示订单号、购买商品名称、订单时间，订单金额，内容清晰完整无遮挡，尽最大可能提供完整；
-以便人员进行核实。感谢您对游戏的喜爱与关注。
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对答案进行答复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>想咨询问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>除“祖龙渠道”以外的其他渠道</t>
-  </si>
-  <si>
-    <t>“祖龙渠道”</t>
-  </si>
-  <si>
-    <t>“祖龙渠道”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>除“祖龙渠道”以外的其他渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。
+1、 由于登录《龙族：卡塞尔之门》游戏账号均需通过实名认证方可登录游戏进行充值操作，且由于申请的发票为增值税普通发票（电子发票）开具电子发票抬头默认为实名认证的姓名，无需填写纳税人识别号，为保障账号安全，避免因共享、出售账号等违反《公平运营公告》及《祖龙娱乐用户协议》相关条款的行为给实名认证者带来不必要的损失，因此还请您提供相关实名信息(实名认证人姓名及身份证号码)以供核实。
+如您确认发票抬头【不具姓名】，则抬头一律为【个人】。
+2、 请您提供XXXX年XX月XX日至XX月XX日（如跨年需在后面日期前加上年份）所需开具的【发票金额】，同时提供包含充值时间、充值金额、充值商户订单号的扣款页面截图，截图需清晰完整且无遮挡、无涂抹。您所提供的开票金额、信息和截图文件会经过核对并备案，核对通过后会根据所提供开票金额开具电子发票。
+3、 请您留下用于接收发票的电子邮箱地址（如您有163、126、qq等后缀的邮箱，推荐预留此类邮箱地址），您需确保所提供的邮箱地址的有效性与准确性，自行承担因提供电子邮箱地址错误产生的责任。
+以下情况请您注意：
+1、 电子发票是税务机关推行的有效收付款凭证，其法律效力、基本用途及使用规定同纸质发票，如需纸质发票可自行下载打印；
+2、 开票内容中“货物或应税劳务、服务名称”为：*信息技术服务*信息技术服务费；
+3、 发票日期仅支持开具申请日期以后的发票；
+4、 同一个订单号无法重复开具发票。
+感谢您对游戏的支持与关注。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司发票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开具公司发票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。
+请您确认您的充值行为是为您所要求开具发票的公司所发生的，在您回复确认后，我们将尝试为您推动相关流程。
+感谢您对游戏的喜爱与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。
+请您确认您的充值行为是为您所要求开具发票的公司所发生的，在您回复确认后，我们将尝试为您推动相关流程。
+感谢您对游戏的喜爱与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸质发票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开具纸质发票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。电子发票是税务机关推行的有效收付款凭证，其法律效力、基本用途及使用规定同纸质发票，如需纸质发票可自行下载打印，感谢您的理解与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好。电子发票是税务机关推行的有效收付款凭证，其法律效力、基本用途及使用规定同纸质发票，如需纸质发票可自行下载打印，感谢您的理解与支持。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，请问您具体有哪方面的发票需求？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，您好，请问您关于发票具体有哪方面的发票需求？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，请问您具体是因为什么问题要退款呢？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专员，请问您具体是因为什么问题要退款呢？</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1204,12 +1537,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1220,6 +1629,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:J1048576"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="一级分类" dataDxfId="11"/>
+    <tableColumn id="2" name="二级分类" dataDxfId="10"/>
+    <tableColumn id="3" name="三级分类" dataDxfId="9"/>
+    <tableColumn id="4" name="四级分类" dataDxfId="8"/>
+    <tableColumn id="5" name="五级分类" dataDxfId="7"/>
+    <tableColumn id="6" name="答案" dataDxfId="6"/>
+    <tableColumn id="7" name="列7" dataDxfId="5"/>
+    <tableColumn id="8" name="列8" dataDxfId="4"/>
+    <tableColumn id="9" name="列9" dataDxfId="3"/>
+    <tableColumn id="10" name="列10" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表6_8" displayName="表6_8" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:J1048576"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="一级分类" dataDxfId="21"/>
+    <tableColumn id="2" name="二级分类" dataDxfId="20"/>
+    <tableColumn id="3" name="三级分类" dataDxfId="19"/>
+    <tableColumn id="4" name="四级分类" dataDxfId="18"/>
+    <tableColumn id="5" name="五级分类" dataDxfId="17"/>
+    <tableColumn id="6" name="答案" dataDxfId="16"/>
+    <tableColumn id="7" name="列7" dataDxfId="15"/>
+    <tableColumn id="8" name="列8" dataDxfId="14"/>
+    <tableColumn id="9" name="列9" dataDxfId="13"/>
+    <tableColumn id="10" name="列10" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1511,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1560,1072 +2007,1072 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="132" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="99" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="127.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="140.25" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="140.25" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="180" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="180" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2636,4 +3083,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="100.75" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="162" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="189" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="189" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="100.75" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="162" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="243" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/backend/agents/faq_filter_agent/data/faq.xlsx
+++ b/backend/agents/faq_filter_agent/data/faq.xlsx
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老号注销后将原先绑定的手机绑其它账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>专员，您好。已注销账号所绑定的同一手机号无法再注册/绑定其他账号，如您仍需要使用该手机号注册/绑定新的账号，请尝试通过以下方式将该手机号换绑出来后再次尝试绑定：
 1.前往【祖龙娱乐】官网：https://passport.zulong.com/
 2.登录已注销的祖龙账号
@@ -545,6 +541,10 @@
   </si>
   <si>
     <t>专员，您好，请问您具体有哪方面的发票需求？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老账号注销后将原先绑定的手机绑其它账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1032,10 +1032,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -1106,7 +1106,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1142,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
@@ -1153,13 +1153,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -1167,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
@@ -1181,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1195,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1206,173 +1206,173 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1450,118 +1450,118 @@
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
